--- a/biology/Zoologie/Cecidophyes/Cecidophyes.xlsx
+++ b/biology/Zoologie/Cecidophyes/Cecidophyes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecidophyes est un genre d'acariens de la famille des Eriophyidae. Ces espèces sont responsables de galles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon IRMNG  (5 juillet 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon IRMNG  (5 juillet 2022) :
 Cecidophyes arbuti (Keifer, 1939)
 Cecidophyes bambusae Kuang, 1997
 Cecidophyes borealis (Liro, 1940)
@@ -555,7 +569,7 @@
 Cecidophyes thailandica Keifer, 1975
 Cecidophyes tristernalis (Nalepa, 1898)
 Cecidophyes violae (Nalepa, 1902)
-Noms en synonymie[1]
+Noms en synonymie
 Cecidophyes euphorbiae Nalepa, 1890, un synonyme de Eriophyes euphorbiae (Nalepa, 1891)</t>
         </is>
       </c>
@@ -584,9 +598,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cecidophyes a été créé en 1887 par l'arachnologue autrichien Alfred Nalepa (1856-1929)[2],[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cecidophyes a été créé en 1887 par l'arachnologue autrichien Alfred Nalepa (1856-1929),
 </t>
         </is>
       </c>
@@ -615,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Alfred Nalepa, « Die anatomie der Phytoptiden », Sitzungsberichte der kaiserlichen Akademie der Wissenschaften. Mathematisch-Naturwissenschaftliche Classe, vol. 96, no 1,‎ 1887, p. 115-165 (ISSN 1021-7045, lire en ligne)</t>
         </is>
